--- a/ExtractionResults/ExtractionResults.xlsx
+++ b/ExtractionResults/ExtractionResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaGradinaru\Documents\UiPath\POC_SignatuereDetection_DU\ExtractionResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaGradinaru\Documents\GitHub\SignatureDetection_DocumentUnderstanding\ExtractionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92978970-D1B6-496F-A6D8-2AAD35C36274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C68AE0-4159-42FD-A937-305E3C82EA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19399" yWindow="-503" windowWidth="19779" windowHeight="13816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21614" yWindow="-842" windowWidth="19780" windowHeight="13816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,22 @@
     <t>Signed?</t>
   </si>
   <si>
+    <t>W9-Form_1.pdf</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>W9-Form_1.pdf</t>
-  </si>
-  <si>
     <t>W9-Form_2.pdf</t>
   </si>
   <si>
     <t>W9-Form_3.pdf</t>
   </si>
   <si>
+    <t>W9-Form_4.pdf</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>W9-Form_4.pdf</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -388,10 +388,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -399,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,15 +407,15 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
